--- a/MotorsCompany/style/AUTOS/Hoja de cálculo sin título.xlsx
+++ b/MotorsCompany/style/AUTOS/Hoja de cálculo sin título.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fuentealba\Documents\GitHub\INFO1129\MotorsCompany\style\AUTOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="3405"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -241,24 +249,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -278,9 +294,21 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -294,58 +322,367 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:AA1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="57.71"/>
-    <col customWidth="1" min="15" max="15" width="36.86"/>
-    <col customWidth="1" min="23" max="23" width="42.0"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1"/>
+    <col min="23" max="23" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5">
+    <row r="5" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -421,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
@@ -430,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="5">
-        <v>1.32E7</v>
+        <v>13200000</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -438,11 +775,11 @@
       <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>10</v>
@@ -451,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>7</v>
@@ -463,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="U6" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>10</v>
@@ -472,10 +809,10 @@
         <v>17</v>
       </c>
       <c r="X6" s="5">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -486,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
@@ -495,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="5">
-        <v>3500000.0</v>
+        <v>3500000</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>18</v>
@@ -503,11 +840,11 @@
       <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="3">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>24</v>
@@ -516,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="5">
-        <v>8000000.0</v>
+        <v>8000000</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>18</v>
@@ -528,7 +865,7 @@
         <v>27</v>
       </c>
       <c r="U7" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>10</v>
@@ -537,21 +874,21 @@
         <v>11</v>
       </c>
       <c r="X7" s="5">
-        <v>3600000.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
@@ -560,19 +897,19 @@
         <v>30</v>
       </c>
       <c r="H8" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>10</v>
@@ -581,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="5">
-        <v>7000000.0</v>
+        <v>7000000</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>28</v>
@@ -593,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="U8" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>35</v>
@@ -602,10 +939,10 @@
         <v>30</v>
       </c>
       <c r="X8" s="5">
-        <v>1.25E7</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -616,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
@@ -625,7 +962,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>36</v>
@@ -637,7 +974,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="3">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>10</v>
@@ -646,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="P9" s="5">
-        <v>3600000.0</v>
+        <v>3600000</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>36</v>
@@ -658,7 +995,7 @@
         <v>44</v>
       </c>
       <c r="U9" s="3">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>10</v>
@@ -667,21 +1004,21 @@
         <v>17</v>
       </c>
       <c r="X9" s="5">
-        <v>3800000.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>35</v>
@@ -690,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="5">
-        <v>1.7E7</v>
+        <v>17000000</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>45</v>
@@ -702,7 +1039,7 @@
         <v>50</v>
       </c>
       <c r="M10" s="3">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>10</v>
@@ -711,7 +1048,7 @@
         <v>51</v>
       </c>
       <c r="P10" s="5">
-        <v>3100000.0</v>
+        <v>3100000</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>45</v>
@@ -723,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="U10" s="3">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>24</v>
@@ -732,10 +1069,10 @@
         <v>54</v>
       </c>
       <c r="X10" s="5">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -746,7 +1083,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>35</v>
@@ -755,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="5">
-        <v>1.0E7</v>
+        <v>10000000</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>55</v>
@@ -763,11 +1100,11 @@
       <c r="K11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="M11" s="3">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>10</v>
@@ -776,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="P11" s="5">
-        <v>4100000.0</v>
+        <v>4100000</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>55</v>
@@ -788,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="U11" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>24</v>
@@ -797,10 +1134,10 @@
         <v>48</v>
       </c>
       <c r="X11" s="5">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -811,7 +1148,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="3">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
@@ -820,7 +1157,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="5">
-        <v>1.4E7</v>
+        <v>14000000</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>55</v>
@@ -832,7 +1169,7 @@
         <v>63</v>
       </c>
       <c r="M12" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>24</v>
@@ -841,10 +1178,10 @@
         <v>64</v>
       </c>
       <c r="P12" s="5">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -855,7 +1192,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="3">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>24</v>
@@ -864,21 +1201,21 @@
         <v>66</v>
       </c>
       <c r="H13" s="5">
-        <v>9500000.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
@@ -887,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="H14" s="5">
-        <v>4500000.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
@@ -901,7 +1238,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>35</v>
@@ -910,10 +1247,10 @@
         <v>21</v>
       </c>
       <c r="H15" s="5">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -924,7 +1261,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="3">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
@@ -933,10 +1270,10 @@
         <v>30</v>
       </c>
       <c r="H16" s="5">
-        <v>4000000.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
@@ -947,7 +1284,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
@@ -956,10 +1293,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="5">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="1001">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="1001" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1001" s="2"/>
       <c r="V1001" s="3"/>
       <c r="W1001" s="4"/>
@@ -968,7 +1305,7 @@
       <c r="Z1001" s="6"/>
       <c r="AA1001" s="5"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1002" s="2"/>
       <c r="V1002" s="3"/>
       <c r="W1002" s="4"/>
@@ -977,7 +1314,7 @@
       <c r="Z1002" s="6"/>
       <c r="AA1002" s="5"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1003" s="2"/>
       <c r="V1003" s="3"/>
       <c r="W1003" s="4"/>
@@ -986,7 +1323,7 @@
       <c r="Z1003" s="6"/>
       <c r="AA1003" s="5"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1004" s="2"/>
       <c r="V1004" s="3"/>
       <c r="W1004" s="4"/>
@@ -995,7 +1332,7 @@
       <c r="Z1004" s="6"/>
       <c r="AA1004" s="5"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1005" s="2"/>
       <c r="V1005" s="3"/>
       <c r="W1005" s="4"/>
@@ -1004,7 +1341,7 @@
       <c r="Z1005" s="6"/>
       <c r="AA1005" s="5"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1006" s="2"/>
       <c r="V1006" s="3"/>
       <c r="W1006" s="4"/>
@@ -1013,7 +1350,7 @@
       <c r="Z1006" s="6"/>
       <c r="AA1006" s="5"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1007" s="2"/>
       <c r="V1007" s="3"/>
       <c r="W1007" s="4"/>
@@ -1022,7 +1359,7 @@
       <c r="Z1007" s="6"/>
       <c r="AA1007" s="5"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1008" s="2"/>
       <c r="V1008" s="3"/>
       <c r="W1008" s="4"/>
@@ -1031,7 +1368,7 @@
       <c r="Z1008" s="6"/>
       <c r="AA1008" s="5"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1009" s="2"/>
       <c r="V1009" s="3"/>
       <c r="W1009" s="4"/>
@@ -1040,7 +1377,7 @@
       <c r="Z1009" s="6"/>
       <c r="AA1009" s="5"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1010" s="2"/>
       <c r="V1010" s="3"/>
       <c r="W1010" s="4"/>
@@ -1049,7 +1386,7 @@
       <c r="Z1010" s="6"/>
       <c r="AA1010" s="5"/>
     </row>
-    <row r="1011">
+    <row r="1011" spans="21:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="U1011" s="2"/>
       <c r="V1011" s="3"/>
       <c r="W1011" s="4"/>
@@ -1059,6 +1396,7 @@
       <c r="AA1011" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>